--- a/recruitment/src/main/resources/Sanity.xlsx
+++ b/recruitment/src/main/resources/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\IdeaProjects\Master\Automation_Project\recruitment\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC619FB8-E747-4104-A732-77CD130E122B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA57AC9-BD9D-4630-9B84-F9B013F9F059}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:H261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/recruitment/src/main/resources/Sanity.xlsx
+++ b/recruitment/src/main/resources/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\IdeaProjects\Master\Automation_Project\recruitment\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA57AC9-BD9D-4630-9B84-F9B013F9F059}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F5854C-E677-48EA-81B3-9943AD9D332D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>TCID</t>
   </si>
@@ -65,13 +65,16 @@
     <t>Recruitment</t>
   </si>
   <si>
-    <t>com.darwinbox.recruitment.TestCandidatesTags</t>
-  </si>
-  <si>
-    <t>CandidateTags.xlsx</t>
-  </si>
-  <si>
-    <t>Sheet1</t>
+    <t>com.darwinbox.recruitment.TestCRUD</t>
+  </si>
+  <si>
+    <t>CRUD.xlsx</t>
+  </si>
+  <si>
+    <t>CRUD API operations of Recruitment Settings Pages</t>
+  </si>
+  <si>
+    <t>HiringWF</t>
   </si>
 </sst>
 </file>
@@ -119,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -127,6 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,7 +459,8 @@
     <col min="5" max="5" width="43" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
     <col min="7" max="7" width="20.77734375" customWidth="1"/>
-    <col min="8" max="1025" width="11.5546875"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
@@ -484,7 +489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -494,6 +499,9 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
@@ -501,7 +509,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>

--- a/recruitment/src/main/resources/Sanity.xlsx
+++ b/recruitment/src/main/resources/Sanity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\IdeaProjects\Master\Automation_Project\recruitment\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F5854C-E677-48EA-81B3-9943AD9D332D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E0D9F1-9F9B-4E8B-96D3-0C18E695020B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>TCID</t>
   </si>
@@ -75,6 +75,54 @@
   </si>
   <si>
     <t>HiringWF</t>
+  </si>
+  <si>
+    <t>com.darwinbox.recruitment.requisitions.TestCreateRequisition</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>requisition.xlsx</t>
+  </si>
+  <si>
+    <t>createReqPermissionHolder</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>com.darwinbox.recruitment.requisitions.TestRequisitionPermissionRoleHolder</t>
+  </si>
+  <si>
+    <t>Create Requisition and validate at admin end</t>
+  </si>
+  <si>
+    <t>Create Requisition by a permission roleholder</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Create requisition with add to existing jobs option</t>
+  </si>
+  <si>
+    <t>com.darwinbox.recruitment.requisitions.TestCreateReqWithAddToExistingJObs</t>
+  </si>
+  <si>
+    <t>ReqAddToExistingJobs</t>
+  </si>
+  <si>
+    <t>createrequisition</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Check all the four pages to post job</t>
+  </si>
+  <si>
+    <t>com.darwinbox.recruitment.requisitions.TestJobPosting</t>
   </si>
 </sst>
 </file>
@@ -448,7 +496,7 @@
   <dimension ref="A1:H261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -456,9 +504,9 @@
     <col min="1" max="1" width="8.5546875" customWidth="1"/>
     <col min="2" max="3" width="15.88671875" customWidth="1"/>
     <col min="4" max="4" width="25.5546875" customWidth="1"/>
-    <col min="5" max="5" width="43" customWidth="1"/>
+    <col min="5" max="5" width="52.33203125" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" customWidth="1"/>
+    <col min="7" max="7" width="29.88671875" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="9" max="1025" width="11.5546875"/>
   </cols>
@@ -516,20 +564,108 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>

--- a/recruitment/src/main/resources/Sanity.xlsx
+++ b/recruitment/src/main/resources/Sanity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\IdeaProjects\Master\Automation_Project\recruitment\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E0D9F1-9F9B-4E8B-96D3-0C18E695020B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBD5398-3737-4986-B1D1-BEE6580C8310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>TCID</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>com.darwinbox.recruitment.requisitions.TestJobPosting</t>
+  </si>
+  <si>
+    <t>JobPosting</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>com.darwinbox.recruitment.requisitions.TestHiringWorkFlow</t>
   </si>
 </sst>
 </file>
@@ -496,7 +508,7 @@
   <dimension ref="A1:H261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -661,15 +673,37 @@
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>

--- a/recruitment/src/main/resources/Sanity.xlsx
+++ b/recruitment/src/main/resources/Sanity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\IdeaProjects\Master\Automation_Project\recruitment\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mouni\IdeaProjects\Automation_Project\recruitment\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBD5398-3737-4986-B1D1-BEE6580C8310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB2C146-D68A-4487-8CC0-8B4837E0EEF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
   <si>
     <t>TCID</t>
   </si>
@@ -135,6 +135,30 @@
   </si>
   <si>
     <t>com.darwinbox.recruitment.requisitions.TestHiringWorkFlow</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>com.darwinbox.recruitment.requisitions.TestAddCandidates</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>com.darwinbox.recruitment.staffingModel.PositionBased.TestPositionBasedByAddingEmployee</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>com.darwinbox.recruitment.staffingModel.JobBased.TestJobBasedByAddingEmployee</t>
+  </si>
+  <si>
+    <t>com.darwinbox.recruitment.staffingModel.NoStaffingModel.TestNoStaffingModelByAddingEmployee</t>
   </si>
 </sst>
 </file>
@@ -508,7 +532,7 @@
   <dimension ref="A1:H261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -706,20 +730,108 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
